--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_7_24.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_7_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>511173.9691820212</v>
+        <v>531142.7984392501</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484449</v>
+        <v>492028.9342484443</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7884148.007397913</v>
+        <v>7928339.929777143</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>326.8686979925336</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>339.8235191548421</v>
       </c>
     </row>
     <row r="3">
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>23.27811463083614</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -871,7 +871,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -883,7 +883,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>173.5591556145158</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>329.7572132367896</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>58.75419230852131</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0.8069000430770075</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>99.4476420004344</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>130.6556207749486</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1114,13 +1114,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>165.0699612865397</v>
       </c>
       <c r="D8" t="n">
-        <v>170.9866846895986</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>57.55526645594443</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1382,7 +1382,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>129.3727203283462</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>32.67077719907088</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>15.57230972412438</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1591,7 +1591,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1607,7 +1607,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>166.162536832921</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,10 +1658,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>206.485501777224</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1777,10 +1777,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>24.34318456170492</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>154.4380635245698</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -1859,10 +1859,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>101.0430753545954</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2014,13 +2014,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>73.01514676193494</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225813</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2093,7 +2093,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>129.7853418074787</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
@@ -2138,7 +2138,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>91.39226931002285</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -2239,7 +2239,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>10.04027365719971</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -2302,7 +2302,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>103.345659457196</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>152.1863276643942</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2488,13 +2488,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2716,7 +2716,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>43.77283765622104</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2728,7 +2728,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225726</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2950,7 +2950,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>27.18442331492807</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
@@ -2962,13 +2962,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>3.13954148002346</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3190,10 +3190,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>32.98066327132582</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
@@ -3202,7 +3202,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225706</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3436,7 +3436,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>160.7884964950068</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>18.0567773522574</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3721,13 +3721,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>129.7139627068458</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>85.55329631630696</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791304972</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>126.7541180064927</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>18.05677735225694</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -4147,7 +4147,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>160.7884964950063</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4195,7 +4195,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>129.7139627068463</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>484.0636759001416</v>
+        <v>1265.851063100792</v>
       </c>
       <c r="C2" t="n">
-        <v>449.9616071239689</v>
+        <v>827.708590284215</v>
       </c>
       <c r="D2" t="n">
-        <v>418.0922263388175</v>
+        <v>795.8392094990636</v>
       </c>
       <c r="E2" t="n">
-        <v>388.3578855375167</v>
+        <v>362.0644646573587</v>
       </c>
       <c r="F2" t="n">
-        <v>364.5308599871285</v>
+        <v>338.2374391069705</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>338.2374391069705</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>49.10728455018674</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018674</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>484.3619720031046</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>1092.064618311666</v>
       </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>1132.008730489125</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>1132.008730489125</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>1132.008730489125</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1132.008730489125</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1739.711376797686</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2286.210162756281</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509337</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509337</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509337</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509337</v>
       </c>
       <c r="V2" t="n">
-        <v>1334.566480014244</v>
+        <v>2455.364227509337</v>
       </c>
       <c r="W2" t="n">
-        <v>1333.751429465681</v>
+        <v>2050.508772920371</v>
       </c>
       <c r="X2" t="n">
-        <v>914.6089660449919</v>
+        <v>1631.366309499681</v>
       </c>
       <c r="Y2" t="n">
-        <v>910.3632463850494</v>
+        <v>1288.110229545295</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414795</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>448.8225683781218</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.7322795246751</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030505</v>
+        <v>259.6118648516288</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>176.2280264677904</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>90.84293673397427</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018674</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>75.17095771064434</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>399.7292826768567</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1007.431928985418</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>1007.431928985418</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1007.431928985418</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028996</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477379</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.71296480798</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807949</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.936145603142</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.0687098420219</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212427</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.94366860160834</v>
+        <v>805.2136344764162</v>
       </c>
       <c r="C4" t="n">
-        <v>33.94366860160834</v>
+        <v>632.6519229596412</v>
       </c>
       <c r="D4" t="n">
-        <v>33.94366860160834</v>
+        <v>466.7739301611639</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>466.7739301611639</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>443.2606830593092</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>277.6694080851369</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>137.7672337755114</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018674</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>49.10728455018674</v>
       </c>
       <c r="K4" t="n">
-        <v>120.5233537662982</v>
+        <v>323.8657391213223</v>
       </c>
       <c r="L4" t="n">
-        <v>437.4083829648294</v>
+        <v>742.0756208892833</v>
       </c>
       <c r="M4" t="n">
-        <v>857.4612819097326</v>
+        <v>1201.559488070196</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>1643.818291227841</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>1939.664558674663</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2287.171452645005</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509337</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2433.946406214709</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>2274.705037512706</v>
       </c>
       <c r="T4" t="n">
-        <v>1292.062614956869</v>
+        <v>2028.825591091161</v>
       </c>
       <c r="U4" t="n">
-        <v>1013.629614209975</v>
+        <v>2028.825591091161</v>
       </c>
       <c r="V4" t="n">
-        <v>726.6741060804052</v>
+        <v>1741.870082961591</v>
       </c>
       <c r="W4" t="n">
-        <v>454.6477016666967</v>
+        <v>1469.843678547883</v>
       </c>
       <c r="X4" t="n">
-        <v>209.2559470001092</v>
+        <v>1224.451923881295</v>
       </c>
       <c r="Y4" t="n">
-        <v>33.94366860160834</v>
+        <v>997.0322531954034</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1343.932506313052</v>
+        <v>1298.040072665448</v>
       </c>
       <c r="C5" t="n">
-        <v>915.3508320503199</v>
+        <v>1263.938003889276</v>
       </c>
       <c r="D5" t="n">
-        <v>486.7691577875882</v>
+        <v>1204.590334890769</v>
       </c>
       <c r="E5" t="n">
-        <v>58.18748352485655</v>
+        <v>770.8155900490646</v>
       </c>
       <c r="F5" t="n">
-        <v>34.36045797446834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1743.687422190584</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>1728.585362810299</v>
       </c>
       <c r="Y5" t="n">
-        <v>1677.020600491627</v>
+        <v>1724.339643150356</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>705.2562847857771</v>
+        <v>790.1610481280939</v>
       </c>
       <c r="C7" t="n">
-        <v>705.2562847857771</v>
+        <v>617.5993366113188</v>
       </c>
       <c r="D7" t="n">
-        <v>705.2562847857771</v>
+        <v>451.7213438128414</v>
       </c>
       <c r="E7" t="n">
-        <v>604.8041211489747</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M7" t="n">
-        <v>872.2064493144727</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1292.259348259376</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2538.085451911278</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2292.206005489733</v>
       </c>
       <c r="U7" t="n">
-        <v>992.2117929153466</v>
+        <v>2013.773004742838</v>
       </c>
       <c r="V7" t="n">
-        <v>705.2562847857771</v>
+        <v>1726.817496613269</v>
       </c>
       <c r="W7" t="n">
-        <v>705.2562847857771</v>
+        <v>1454.79109219956</v>
       </c>
       <c r="X7" t="n">
-        <v>705.2562847857771</v>
+        <v>1209.399337532973</v>
       </c>
       <c r="Y7" t="n">
-        <v>705.2562847857771</v>
+        <v>981.979666847081</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1796.174776892349</v>
+        <v>305.9860876711973</v>
       </c>
       <c r="C8" t="n">
-        <v>1762.072708116176</v>
+        <v>139.2487530383289</v>
       </c>
       <c r="D8" t="n">
-        <v>1589.35888519739</v>
+        <v>107.3793722531775</v>
       </c>
       <c r="E8" t="n">
-        <v>1155.584140355685</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F8" t="n">
-        <v>727.7167107648927</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>326.3188793881566</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>37.18872483137286</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851286</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>36.77193545851286</v>
+        <v>141.0418768474983</v>
       </c>
       <c r="K8" t="n">
-        <v>36.77193545851286</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="L8" t="n">
-        <v>473.4386690283533</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="M8" t="n">
-        <v>928.49137032745</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="N8" t="n">
-        <v>1383.544071626547</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="O8" t="n">
-        <v>1838.596772925643</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>1838.596772925643</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>1838.596772925643</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925643</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1838.596772925643</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1838.596772925643</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>1838.596772925643</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.596772925643</v>
+        <v>1964.569699866108</v>
       </c>
       <c r="W8" t="n">
-        <v>1837.781722377081</v>
+        <v>1559.714245277141</v>
       </c>
       <c r="X8" t="n">
-        <v>1822.679662996795</v>
+        <v>1140.571781856452</v>
       </c>
       <c r="Y8" t="n">
-        <v>1818.433943336853</v>
+        <v>732.2856581561051</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498057</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.487219286448</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.3969304330012</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599549</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761165</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230039</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851286</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>62.83560861897045</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.3939335851828</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>842.4466348842794</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1127.786217543885</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1127.786217543885</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1127.786217543885</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1127.786217543885</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543885</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716307</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114682</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.7333607503481</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295688</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1115.830096070394</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>943.2683845536193</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>777.390391755142</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>607.6323880058792</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>430.9253339676354</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>265.334058993463</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>125.4318846838375</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851286</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>36.77193545851286</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>36.77193545851286</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>174.1091252727788</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>629.1618265718754</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1071.42062972952</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1491.089878955301</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1838.596772925643</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925643</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1838.596772925643</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1838.596772925643</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1838.596772925643</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1838.596772925643</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1838.596772925643</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1780.460140141861</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1535.068385475273</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1307.648714789382</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2252.656868168566</v>
+        <v>2523.375184062125</v>
       </c>
       <c r="C11" t="n">
-        <v>1814.51439535199</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D11" t="n">
-        <v>1378.604610526434</v>
+        <v>1649.322926419993</v>
       </c>
       <c r="E11" t="n">
-        <v>944.8298656847292</v>
+        <v>1215.548181578288</v>
       </c>
       <c r="F11" t="n">
-        <v>516.962436093937</v>
+        <v>787.6807519874956</v>
       </c>
       <c r="G11" t="n">
-        <v>386.2829206107589</v>
+        <v>386.282920610759</v>
       </c>
       <c r="H11" t="n">
-        <v>97.15276605397516</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J11" t="n">
         <v>531.9906641340331</v>
@@ -5045,46 +5045,46 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L11" t="n">
-        <v>1366.340956092211</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="M11" t="n">
-        <v>1366.340956092211</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.656441940404</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.83610851071</v>
+        <v>3292.836108510712</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344106</v>
+        <v>4121.145983344108</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302701</v>
+        <v>4667.644769302702</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055758</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239595</v>
+        <v>4803.798049006192</v>
       </c>
       <c r="T11" t="n">
-        <v>4533.079733112633</v>
+        <v>4803.798049006192</v>
       </c>
       <c r="U11" t="n">
-        <v>4273.85743042965</v>
+        <v>4544.575746323208</v>
       </c>
       <c r="V11" t="n">
-        <v>3911.240480363476</v>
+        <v>4181.958796257035</v>
       </c>
       <c r="W11" t="n">
-        <v>3506.38502577451</v>
+        <v>3777.103341668068</v>
       </c>
       <c r="X11" t="n">
-        <v>3087.242562353821</v>
+        <v>3357.960878247379</v>
       </c>
       <c r="Y11" t="n">
-        <v>2678.956438653474</v>
+        <v>2949.674754547033</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I12" t="n">
-        <v>122.7996498415728</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J12" t="n">
-        <v>447.3579748077851</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.064021433509</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="M12" t="n">
-        <v>1102.064021433509</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="N12" t="n">
-        <v>1102.064021433509</v>
+        <v>1219.236799527848</v>
       </c>
       <c r="O12" t="n">
-        <v>1102.064021433509</v>
+        <v>1219.236799527848</v>
       </c>
       <c r="P12" t="n">
-        <v>1102.064021433509</v>
+        <v>1219.236799527848</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.802960065584</v>
+        <v>1759.975738159924</v>
       </c>
       <c r="R12" t="n">
         <v>1759.975738159924</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1035.891962983371</v>
+        <v>947.2320137580463</v>
       </c>
       <c r="C13" t="n">
-        <v>863.330251466596</v>
+        <v>774.6703022412712</v>
       </c>
       <c r="D13" t="n">
-        <v>697.4522586681187</v>
+        <v>608.792309442794</v>
       </c>
       <c r="E13" t="n">
-        <v>527.6942549188559</v>
+        <v>439.0343056935312</v>
       </c>
       <c r="F13" t="n">
-        <v>350.9872008806121</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G13" t="n">
-        <v>185.3959259064398</v>
+        <v>96.73597668111506</v>
       </c>
       <c r="H13" t="n">
-        <v>185.3959259064398</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J13" t="n">
         <v>183.315661845805</v>
@@ -5206,7 +5206,7 @@
         <v>876.2839981849017</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N13" t="n">
         <v>1778.026668523459</v>
@@ -5221,28 +5221,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R13" t="n">
-        <v>2697.665980801971</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S13" t="n">
-        <v>2538.424612099967</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="T13" t="n">
-        <v>2292.545165678423</v>
+        <v>2449.276971119686</v>
       </c>
       <c r="U13" t="n">
-        <v>2014.112164931528</v>
+        <v>2170.843970372791</v>
       </c>
       <c r="V13" t="n">
-        <v>1727.156656801958</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W13" t="n">
-        <v>1455.13025238825</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X13" t="n">
-        <v>1455.13025238825</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y13" t="n">
-        <v>1227.710581702358</v>
+        <v>1139.050632477033</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2523.375184062124</v>
+        <v>2252.656868168567</v>
       </c>
       <c r="C14" t="n">
-        <v>2085.232711245548</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D14" t="n">
-        <v>1649.322926419992</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.548181578287</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F14" t="n">
-        <v>787.680751987495</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G14" t="n">
-        <v>386.2829206107589</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H14" t="n">
-        <v>97.15276605397517</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I14" t="n">
         <v>96.73597668111518</v>
@@ -5282,10 +5282,10 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L14" t="n">
-        <v>1366.340956092211</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="M14" t="n">
-        <v>1366.340956092211</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="N14" t="n">
         <v>2312.656441940405</v>
@@ -5306,22 +5306,22 @@
         <v>4753.146960239596</v>
       </c>
       <c r="T14" t="n">
-        <v>4544.575746323208</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U14" t="n">
-        <v>4544.575746323208</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V14" t="n">
-        <v>4181.958796257035</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.103341668068</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.960878247379</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.674754547032</v>
+        <v>2678.956438653475</v>
       </c>
     </row>
     <row r="15">
@@ -5355,28 +5355,28 @@
         <v>122.7996498415728</v>
       </c>
       <c r="J15" t="n">
-        <v>122.7996498415728</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K15" t="n">
-        <v>122.7996498415728</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L15" t="n">
-        <v>122.7996498415728</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M15" t="n">
-        <v>1319.907361270373</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N15" t="n">
-        <v>1759.975738159924</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O15" t="n">
-        <v>1759.975738159924</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P15" t="n">
-        <v>1759.975738159924</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="Q15" t="n">
-        <v>1759.975738159924</v>
+        <v>1642.802960065584</v>
       </c>
       <c r="R15" t="n">
         <v>1759.975738159924</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>806.2298140987273</v>
+        <v>965.4711828007306</v>
       </c>
       <c r="C16" t="n">
-        <v>633.6681025819522</v>
+        <v>792.9094712839556</v>
       </c>
       <c r="D16" t="n">
-        <v>467.7901097834749</v>
+        <v>627.0314784854784</v>
       </c>
       <c r="E16" t="n">
-        <v>298.0321060342122</v>
+        <v>457.2734747362156</v>
       </c>
       <c r="F16" t="n">
-        <v>121.3250519959684</v>
+        <v>280.5664206979718</v>
       </c>
       <c r="G16" t="n">
-        <v>96.73597668111518</v>
+        <v>114.9751457237994</v>
       </c>
       <c r="H16" t="n">
         <v>96.73597668111518</v>
@@ -5461,25 +5461,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S16" t="n">
-        <v>2554.154217881911</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="T16" t="n">
-        <v>2308.274771460367</v>
+        <v>2467.51614016237</v>
       </c>
       <c r="U16" t="n">
-        <v>2029.841770713472</v>
+        <v>2189.083139415475</v>
       </c>
       <c r="V16" t="n">
-        <v>1742.886262583902</v>
+        <v>1902.127631285906</v>
       </c>
       <c r="W16" t="n">
-        <v>1470.859858170194</v>
+        <v>1630.101226872197</v>
       </c>
       <c r="X16" t="n">
-        <v>1225.468103503606</v>
+        <v>1384.709472205609</v>
       </c>
       <c r="Y16" t="n">
-        <v>998.0484328177145</v>
+        <v>1157.289801519718</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2336.30874198473</v>
+        <v>2522.958394689264</v>
       </c>
       <c r="C17" t="n">
-        <v>1898.166269168153</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D17" t="n">
-        <v>1462.256484342598</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E17" t="n">
-        <v>1028.481739500893</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F17" t="n">
-        <v>600.6143099101007</v>
+        <v>787.2639626146351</v>
       </c>
       <c r="G17" t="n">
-        <v>199.2164785333645</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H17" t="n">
-        <v>97.15276605397517</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I17" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J17" t="n">
         <v>531.9906641340331</v>
@@ -5522,43 +5522,43 @@
         <v>2441.40092234507</v>
       </c>
       <c r="M17" t="n">
-        <v>3292.836108510712</v>
+        <v>2481.810506693463</v>
       </c>
       <c r="N17" t="n">
-        <v>3292.836108510712</v>
+        <v>2481.810506693463</v>
       </c>
       <c r="O17" t="n">
-        <v>3292.836108510712</v>
+        <v>3461.990173263769</v>
       </c>
       <c r="P17" t="n">
-        <v>4121.145983344108</v>
+        <v>4290.300048097165</v>
       </c>
       <c r="Q17" t="n">
-        <v>4667.644769302702</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R17" t="n">
         <v>4836.798834055759</v>
       </c>
       <c r="S17" t="n">
-        <v>4836.798834055759</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T17" t="n">
-        <v>4616.731606928797</v>
+        <v>4533.079733112635</v>
       </c>
       <c r="U17" t="n">
-        <v>4357.509304245814</v>
+        <v>4273.857430429652</v>
       </c>
       <c r="V17" t="n">
-        <v>3994.89235417964</v>
+        <v>3911.240480363478</v>
       </c>
       <c r="W17" t="n">
-        <v>3590.036899590673</v>
+        <v>3506.385025774512</v>
       </c>
       <c r="X17" t="n">
-        <v>3170.894436169984</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y17" t="n">
-        <v>2762.608312469637</v>
+        <v>2678.956438653476</v>
       </c>
     </row>
     <row r="18">
@@ -5586,7 +5586,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H18" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I18" t="n">
         <v>122.7996498415728</v>
@@ -5595,19 +5595,19 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K18" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L18" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M18" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N18" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O18" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P18" t="n">
         <v>1102.064021433509</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>947.2320137580464</v>
+        <v>944.0533615061025</v>
       </c>
       <c r="C19" t="n">
-        <v>774.6703022412713</v>
+        <v>771.4916499893275</v>
       </c>
       <c r="D19" t="n">
-        <v>608.792309442794</v>
+        <v>605.6136571908503</v>
       </c>
       <c r="E19" t="n">
-        <v>439.0343056935313</v>
+        <v>435.8556534415876</v>
       </c>
       <c r="F19" t="n">
-        <v>262.3272516552875</v>
+        <v>259.1485994033438</v>
       </c>
       <c r="G19" t="n">
-        <v>96.73597668111518</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="H19" t="n">
-        <v>96.73597668111518</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I19" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J19" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K19" t="n">
         <v>458.0741164169406</v>
@@ -5695,28 +5695,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R19" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289286</v>
       </c>
       <c r="S19" t="n">
-        <v>2695.15641754123</v>
+        <v>2691.977765289286</v>
       </c>
       <c r="T19" t="n">
-        <v>2449.276971119686</v>
+        <v>2446.098318867741</v>
       </c>
       <c r="U19" t="n">
-        <v>2170.843970372791</v>
+        <v>2167.665318120847</v>
       </c>
       <c r="V19" t="n">
-        <v>1883.888462243221</v>
+        <v>1880.709809991278</v>
       </c>
       <c r="W19" t="n">
-        <v>1611.862057829513</v>
+        <v>1608.683405577569</v>
       </c>
       <c r="X19" t="n">
-        <v>1366.470303162925</v>
+        <v>1363.291650910981</v>
       </c>
       <c r="Y19" t="n">
-        <v>1139.050632477034</v>
+        <v>1135.87198022509</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2252.656868168569</v>
+        <v>2522.958394689264</v>
       </c>
       <c r="C20" t="n">
-        <v>1814.514395351992</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D20" t="n">
-        <v>1378.604610526437</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E20" t="n">
-        <v>944.8298656847317</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F20" t="n">
-        <v>516.9624360939395</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G20" t="n">
         <v>385.8661312378989</v>
       </c>
       <c r="H20" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I20" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J20" t="n">
         <v>531.9906641340331</v>
       </c>
       <c r="K20" t="n">
-        <v>1356.079523257017</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L20" t="n">
-        <v>1356.079523257017</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M20" t="n">
-        <v>1356.079523257017</v>
+        <v>2481.810506693463</v>
       </c>
       <c r="N20" t="n">
-        <v>2481.810506693464</v>
+        <v>2481.810506693463</v>
       </c>
       <c r="O20" t="n">
-        <v>3461.99017326377</v>
+        <v>3461.990173263769</v>
       </c>
       <c r="P20" t="n">
-        <v>4290.300048097166</v>
+        <v>4290.300048097165</v>
       </c>
       <c r="Q20" t="n">
-        <v>4836.79883405576</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R20" t="n">
-        <v>4836.79883405576</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S20" t="n">
-        <v>4753.146960239597</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T20" t="n">
-        <v>4533.079733112636</v>
+        <v>4533.079733112635</v>
       </c>
       <c r="U20" t="n">
-        <v>4273.857430429653</v>
+        <v>4273.857430429652</v>
       </c>
       <c r="V20" t="n">
-        <v>3911.240480363479</v>
+        <v>4181.542006884174</v>
       </c>
       <c r="W20" t="n">
-        <v>3506.385025774512</v>
+        <v>3776.686552295208</v>
       </c>
       <c r="X20" t="n">
-        <v>3087.242562353823</v>
+        <v>3357.544088874519</v>
       </c>
       <c r="Y20" t="n">
-        <v>2678.956438653477</v>
+        <v>2949.257965174172</v>
       </c>
     </row>
     <row r="21">
@@ -5823,13 +5823,13 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H21" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I21" t="n">
         <v>122.7996498415728</v>
       </c>
       <c r="J21" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K21" t="n">
         <v>1102.064021433509</v>
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>947.2320137580466</v>
+        <v>784.811992804099</v>
       </c>
       <c r="C22" t="n">
         <v>774.6703022412714</v>
@@ -5896,16 +5896,16 @@
         <v>439.0343056935313</v>
       </c>
       <c r="F22" t="n">
-        <v>262.3272516552876</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G22" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="H22" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I22" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J22" t="n">
         <v>183.3156618458051</v>
@@ -5932,28 +5932,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R22" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289286</v>
       </c>
       <c r="S22" t="n">
-        <v>2554.154217881911</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T22" t="n">
-        <v>2308.274771460367</v>
+        <v>2286.856950165738</v>
       </c>
       <c r="U22" t="n">
-        <v>2029.841770713472</v>
+        <v>2008.423949418843</v>
       </c>
       <c r="V22" t="n">
-        <v>1742.886262583902</v>
+        <v>1721.468441289274</v>
       </c>
       <c r="W22" t="n">
-        <v>1470.859858170194</v>
+        <v>1449.442036875565</v>
       </c>
       <c r="X22" t="n">
-        <v>1366.470303162926</v>
+        <v>1204.050282208978</v>
       </c>
       <c r="Y22" t="n">
-        <v>1139.050632477034</v>
+        <v>976.6306115230861</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6026,13 +6026,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477109</v>
+        <v>849.8497331100115</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309358</v>
+        <v>677.2880215932364</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>677.2880215932364</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6163,7 +6163,7 @@
         <v>2203.220781338905</v>
       </c>
       <c r="P25" t="n">
-        <v>2550.727675309246</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q25" t="n">
         <v>2718.920450173579</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6212,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6227,22 +6227,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688169</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321676</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532227</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968674</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q26" t="n">
         <v>5113.04201353898</v>
@@ -6263,13 +6263,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903955</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736204</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>754.219347342084</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6394,7 +6394,7 @@
         <v>1341.292728955479</v>
       </c>
       <c r="N28" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113123</v>
       </c>
       <c r="O28" t="n">
         <v>2203.220781338905</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752035</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.60800300514</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461862</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109383</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6449,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6470,16 +6470,16 @@
         <v>2011.671098481817</v>
       </c>
       <c r="M29" t="n">
-        <v>3168.718933692368</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N29" t="n">
-        <v>4294.449917128814</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q29" t="n">
         <v>5113.04201353898</v>
@@ -6500,13 +6500,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1036.216302815308</v>
+        <v>790.3368563937643</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>617.7751448769892</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>451.8971520785119</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>282.1391483292491</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>105.4320942910053</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6646,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T31" t="n">
-        <v>2538.261260176947</v>
+        <v>2292.381813755404</v>
       </c>
       <c r="U31" t="n">
-        <v>2259.828259430053</v>
+        <v>2013.948813008509</v>
       </c>
       <c r="V31" t="n">
-        <v>1972.872751300483</v>
+        <v>1726.993304878939</v>
       </c>
       <c r="W31" t="n">
-        <v>1700.846346886775</v>
+        <v>1454.966900465231</v>
       </c>
       <c r="X31" t="n">
-        <v>1455.454592220187</v>
+        <v>1209.575145798643</v>
       </c>
       <c r="Y31" t="n">
-        <v>1228.034921534296</v>
+        <v>982.1554751127514</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6686,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532228</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968675</v>
+        <v>4729.704604581732</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.042013538981</v>
+        <v>4729.704604581732</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.042013538981</v>
+        <v>4729.704604581732</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6737,13 +6737,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477109</v>
+        <v>790.3368563937638</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309358</v>
+        <v>617.7751448769887</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324585</v>
+        <v>617.7751448769887</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6880,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798643</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>982.155475112751</v>
       </c>
     </row>
     <row r="35">
@@ -6923,40 +6923,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -6974,13 +6974,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>949.5782250957675</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>777.0165135789924</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>611.1385207805151</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>441.3805170312525</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>264.6734629930087</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7117,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2451.623182457407</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2173.190181710512</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1886.234673580942</v>
+        <v>1889.413325832885</v>
       </c>
       <c r="W37" t="n">
-        <v>1614.208269167234</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1368.816514500646</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1141.396843814755</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7160,13 +7160,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7363,16 +7363,16 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.366634303136</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V40" t="n">
         <v>1748.411126173567</v>
       </c>
       <c r="W40" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1230.992967093271</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
         <v>1144.575496066698</v>
@@ -7391,46 +7391,46 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E41" t="n">
         <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436399</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N41" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
         <v>5113.04201353898</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>952.7568773477108</v>
+        <v>875.5388337745584</v>
       </c>
       <c r="C43" t="n">
-        <v>780.1951658309357</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="D43" t="n">
-        <v>614.3171730324584</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E43" t="n">
-        <v>444.5591692831957</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F43" t="n">
-        <v>267.852115244952</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G43" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H43" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
@@ -7594,25 +7594,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V43" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W43" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X43" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y43" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="44">
@@ -7634,10 +7634,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
         <v>102.6776296436396</v>
@@ -7649,43 +7649,43 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2769.623329187108</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N44" t="n">
-        <v>3895.354312623555</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>4875.533979193861</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>5113.042013538979</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>5113.042013538979</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.042013538979</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595854</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912871</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.483659846697</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257731</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
         <v>3363.485741837043</v>
@@ -7704,16 +7704,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>501.9761240987146</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>406.8858352452679</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>312.7654205722216</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>229.3815821883832</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
         <v>143.9964924545671</v>
@@ -7725,7 +7725,7 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>452.8828383974495</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
         <v>1133.616358467827</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>949.5782250957668</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C46" t="n">
-        <v>777.0165135789921</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D46" t="n">
-        <v>611.1385207805148</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E46" t="n">
-        <v>441.380517031252</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F46" t="n">
-        <v>264.6734629930082</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
         <v>102.2608402707796</v>
@@ -7804,7 +7804,7 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>188.8405254354694</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
         <v>463.598980006605</v>
@@ -7828,28 +7828,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2697.502628878951</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2451.623182457406</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>2173.190181710511</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V46" t="n">
-        <v>1886.234673580942</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W46" t="n">
-        <v>1614.208269167233</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1368.816514500646</v>
+        <v>1371.995166752589</v>
       </c>
       <c r="Y46" t="n">
-        <v>1141.396843814754</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773343</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>40.34758805803972</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7994,10 +7994,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>613.8410568773343</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,16 +8058,16 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773343</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>47.47818213854828</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>320.0858880793245</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>298.8346135826489</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>409.0142240616578</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>441.0775086564046</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
-        <v>459.6491932314108</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>459.6491932314108</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314107</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314108</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>288.2218006662686</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314109</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,16 +8608,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>138.7244341558241</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314108</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -8629,7 +8629,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8693,13 +8693,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>955.8742281294894</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>955.8742281294876</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8763,13 +8763,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8778,7 +8778,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1133.839214996701</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8930,13 +8930,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>955.8742281294894</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>955.8742281294894</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9003,19 +9003,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1209.19970851394</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>444.5135120096477</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9024,10 +9024,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9170,13 +9170,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>860.0355415814561</v>
+        <v>40.81776196807323</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,22 +9243,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9401,16 +9401,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>832.4129890131148</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>40.81776196807323</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9480,7 +9480,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9875,13 +9875,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>702.7389601124028</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
@@ -9890,10 +9890,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10118,19 +10118,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10346,10 +10346,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10361,16 +10361,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>216.3468123274661</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -11066,22 +11066,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11297,28 +11297,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>239.9071053991083</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>268.0111327346225</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>50.14457787893048</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>5.631333357557457</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>267.5985112554899</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,10 +23546,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>11.38105307846772</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23665,10 +23665,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>120.446375214272</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23701,7 +23701,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>267.5985112554889</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23747,10 +23747,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>185.1957776566205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>90.92021546249566</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627252</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>267.5985112554901</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>267.5985112554889</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>37.71410486740304</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>120.4463752142715</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.592177662726</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>143.6516710866792</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>160.7958207444071</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25078,10 +25078,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>135.0797604404443</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25324,7 +25324,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>3.146865729423844</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25609,13 +25609,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>139.5921776627255</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,13 +25783,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>63.14631452530448</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>139.5921776627264</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26035,7 +26035,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>3.146865729424294</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>138.5031525665292</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>139.5921776627251</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>659494.444041428</v>
+        <v>673101.4152537902</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>659494.444041428</v>
+        <v>676954.5469221623</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>662032.3707360425</v>
+        <v>676954.5469221623</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>671615.3968037848</v>
+        <v>671615.3968037846</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>671615.3968037849</v>
+        <v>671615.3968037846</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>671615.3968037848</v>
+        <v>671615.3968037849</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>671615.3968037848</v>
+        <v>671615.3968037849</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>699958.3340159254</v>
+        <v>699958.3340159253</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>699958.3340159254</v>
+        <v>699958.3340159255</v>
       </c>
     </row>
     <row r="12">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>321688.3919342451</v>
+        <v>321688.391934245</v>
       </c>
       <c r="C2" t="n">
-        <v>321688.3919342451</v>
+        <v>321688.391934245</v>
       </c>
       <c r="D2" t="n">
         <v>321688.391934245</v>
@@ -26329,7 +26329,7 @@
         <v>303314.3387830058</v>
       </c>
       <c r="H2" t="n">
-        <v>303314.3387830058</v>
+        <v>303314.3387830059</v>
       </c>
       <c r="I2" t="n">
         <v>316114.5504824112</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039029</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.54437390668</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.80667200312</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520269</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18364.7156328394</v>
+        <v>18364.71563283946</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.8294856132</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784516</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088510259</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104673</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>212093.1194372179</v>
+        <v>182320.3813513282</v>
       </c>
       <c r="C4" t="n">
-        <v>212093.1194372179</v>
+        <v>173889.5352664431</v>
       </c>
       <c r="D4" t="n">
-        <v>206540.0080518353</v>
+        <v>173889.5352664431</v>
       </c>
       <c r="E4" t="n">
         <v>91036.59625752567</v>
@@ -26433,7 +26433,7 @@
         <v>91036.59625752569</v>
       </c>
       <c r="H4" t="n">
-        <v>91036.5962575257</v>
+        <v>91036.59625752569</v>
       </c>
       <c r="I4" t="n">
         <v>94878.44464875289</v>
@@ -26445,19 +26445,19 @@
         <v>94878.44464875289</v>
       </c>
       <c r="L4" t="n">
+        <v>94878.44464875289</v>
+      </c>
+      <c r="M4" t="n">
         <v>94878.44464875288</v>
-      </c>
-      <c r="M4" t="n">
-        <v>94878.44464875289</v>
       </c>
       <c r="N4" t="n">
         <v>94878.44464875289</v>
       </c>
       <c r="O4" t="n">
-        <v>94878.44464875293</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="P4" t="n">
-        <v>94878.44464875285</v>
+        <v>94878.44464875289</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814192</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.27094846977</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
         <v>73519.34227764752</v>
@@ -26482,10 +26482,10 @@
         <v>73519.34227764752</v>
       </c>
       <c r="G5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="H5" t="n">
-        <v>73519.34227764755</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26503,13 +26503,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
         <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.23860579247</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-92020.81629990513</v>
+        <v>-137293.382179128</v>
       </c>
       <c r="C6" t="n">
-        <v>50170.48435980483</v>
+        <v>56245.78773213756</v>
       </c>
       <c r="D6" t="n">
-        <v>42592.30626193684</v>
+        <v>73586.33210604421</v>
       </c>
       <c r="E6" t="n">
-        <v>-85040.89350419433</v>
+        <v>-23053.23351707869</v>
       </c>
       <c r="F6" t="n">
-        <v>138758.4002478326</v>
+        <v>138681.8416930358</v>
       </c>
       <c r="G6" t="n">
-        <v>138758.4002478326</v>
+        <v>138681.8416930358</v>
       </c>
       <c r="H6" t="n">
-        <v>138758.4002478325</v>
+        <v>138681.8416930359</v>
       </c>
       <c r="I6" t="n">
-        <v>125153.1515950264</v>
+        <v>125129.9272556437</v>
       </c>
       <c r="J6" t="n">
-        <v>32503.40188287565</v>
+        <v>-17113.18659713005</v>
       </c>
       <c r="K6" t="n">
-        <v>143517.8672278658</v>
+        <v>129680.634320638</v>
       </c>
       <c r="L6" t="n">
-        <v>134570.2561393556</v>
+        <v>143494.6428884832</v>
       </c>
       <c r="M6" t="n">
-        <v>-43273.11938260146</v>
+        <v>8504.698275479759</v>
       </c>
       <c r="N6" t="n">
-        <v>143517.867227866</v>
+        <v>143494.6428884832</v>
       </c>
       <c r="O6" t="n">
-        <v>143517.8672278658</v>
+        <v>143494.6428884832</v>
       </c>
       <c r="P6" t="n">
-        <v>143517.867227866</v>
+        <v>143494.6428884833</v>
       </c>
     </row>
   </sheetData>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773343</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314108</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.199708513939</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="F4" t="n">
         <v>1209.19970851394</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773343</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052269</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130644</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.5505152825286</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>69.06079487080524</v>
+        <v>69.06079487080547</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773343</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052269</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130644</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825286</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773343</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052269</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130644</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825286</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>70.51515507043518</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>64.37974330850096</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>151.6618688670252</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27591,7 +27591,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>51.58631836451698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92.27936154326909</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>372.7964946687786</v>
       </c>
       <c r="E5" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400</v>
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>68.61278171133571</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>26.99333424003467</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>268.6910868018713</v>
+      </c>
+      <c r="D8" t="n">
         <v>400</v>
       </c>
-      <c r="C8" t="n">
+      <c r="E8" t="n">
         <v>400</v>
       </c>
-      <c r="D8" t="n">
-        <v>260.5640022877013</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28062,16 +28062,16 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>211.7508739136269</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773343</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>40.34758805803972</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34714,10 +34714,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>613.8410568773343</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34778,16 +34778,16 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773343</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>47.47818213854828</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>320.0858880793245</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>298.8346135826489</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>409.0142240616578</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>441.0775086564046</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
-        <v>459.6491932314108</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>459.6491932314108</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314107</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35246,16 +35246,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314108</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>288.2218006662686</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314109</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,16 +35328,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>138.7244341558241</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314108</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -35346,10 +35346,10 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35413,13 +35413,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>955.8742281294894</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>955.8742281294876</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697549</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35498,7 +35498,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1133.839214996701</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35510,7 +35510,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35574,13 +35574,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35650,13 +35650,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>955.8742281294894</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>955.8742281294894</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35723,19 +35723,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1209.19970851394</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>444.5135120096477</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35744,10 +35744,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35890,13 +35890,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>860.0355415814561</v>
+        <v>40.81776196807323</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458546</v>
@@ -35905,7 +35905,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36121,16 +36121,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>832.4129890131148</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>40.81776196807323</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36200,7 +36200,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908064</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36528,13 +36528,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P25" t="n">
-        <v>351.0170646165066</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821543</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>702.7389601124028</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
@@ -36610,10 +36610,10 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36759,13 +36759,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645584</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
@@ -36838,19 +36838,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471158</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -37002,13 +37002,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -37081,16 +37081,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>216.3468123274661</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37713,7 +37713,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37950,7 +37950,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38017,28 +38017,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081364</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>239.9071053991083</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38187,7 +38187,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
